--- a/biology/Histoire de la zoologie et de la botanique/Frédéric_Jiguet/Frédéric_Jiguet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frédéric_Jiguet/Frédéric_Jiguet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Jiguet</t>
+          <t>Frédéric_Jiguet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frédéric Jiguet, né le 16 mai 1972 à Grenoble[1], est un ornithologue et biologiste de la conservation français, professeur au Muséum national d'histoire naturelle[2] de Paris. Il développe des recherches sur la migration des oiseaux et les impacts des changements globaux et des activités anthropiques. Il est membre du Conseil National de la Chasse et de la Faune Sauvage, du Comité d'Experts pour la Gestion Adaptative, du Conseil Scientifique et Technique de la Ligue pour la Protection des Oiseaux, et membre élu du Conseil Scientifique du Muséum National d'Histoire Naturelle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frédéric Jiguet, né le 16 mai 1972 à Grenoble, est un ornithologue et biologiste de la conservation français, professeur au Muséum national d'histoire naturelle de Paris. Il développe des recherches sur la migration des oiseaux et les impacts des changements globaux et des activités anthropiques. Il est membre du Conseil National de la Chasse et de la Faune Sauvage, du Comité d'Experts pour la Gestion Adaptative, du Conseil Scientifique et Technique de la Ligue pour la Protection des Oiseaux, et membre élu du Conseil Scientifique du Muséum National d'Histoire Naturelle.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Jiguet</t>
+          <t>Frédéric_Jiguet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ingénieur agronome[1] diplômé de l'Institut national agronomique Paris-Grignon, il obtient en 2001 à l'Université Pierre-et-Marie-Curie un doctorat en biologie sur le sujet Défense des ressources, choix du partenaire et mécanismes de formation des leks chez l'Outarde canepetière (Tetrax tetrax), une espèce menacée des plaines céréalières, sous la direction de Vincent Bretagnolle. 
-Nommé maître de conférences au Muséum national d'histoire naturelle (MNHN), il rejoint le Centre de recherches sur la biologie des populations d'oiseaux (CRBPO), chargé de gérer et coordonner les activités de baguage en France. Il relance le Suivi temporel des oiseaux communs par écoute (STOC-EPS), un programme de science citoyenne permettant de produire des indices d’abondance des populations d’oiseaux communs, dont il est toujours le coordinateur scientifique[3]. Ces données forment la matière de son premier ouvrage grand public, 100 oiseaux communs nicheurs de France, paru en 2011 chez Delachaux &amp; Niestlé. En 2013, il accède au grade de professeur du MNHN et assure jusqu'en 2019 la direction du CRBPO.
-Au sein du Centre d'écologie et des sciences de la conservation (CESCO), il se consacre en particulier à l'évolution des communautés d'oiseaux face aux changements climatiques, à la conservation des espèces rares et aux scénarios de la biodiversité. En 2013, il reçoit, aux côtés de Vincent Devictor, Romain Julliard et Denis Couvet, le prix spécial du jury La Recherche pour ses travaux sur « La réponse de la biodiversité au changement climatique : les oiseaux et les papillons sont en retard »[4]. De 2012 à 2016, à la demande du ministère de l'Environnement, il coordonne une étude internationale sur la migration du Bruant ortolan (Emberiza hortulana) en Europe. Fondés sur l'utilisation des photomètres géo-localisateurs, les analyses d'isotopes stables et l'analyse de marqueurs génétiques, ses travaux concluent que 300 000 ortolans migrent par le sud-ouest de la France, originaires principalement de Pologne et de Scandinavie, où l'espèce est le plus en déclin[5],[6]. Depuis 2015, il dirige un projet confié au MNHN par la mairie de Paris visant à baguer les corneilles noires (Corvus corone) parisiennes pour suivre leurs déplacements[7].
-Il a décrit deux sous-espèces de Goéland dominicain[8], nommées en l'honneur de son épouse et de sa fille, Larus dominicanus judithae Jiguet 2002[9] et Larus dominicanus melisandae Jiguet 2002[10], que l'on rencontre respectivement sur les îles subantarctiques de l'océan Indien et à Madagascar.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ingénieur agronome diplômé de l'Institut national agronomique Paris-Grignon, il obtient en 2001 à l'Université Pierre-et-Marie-Curie un doctorat en biologie sur le sujet Défense des ressources, choix du partenaire et mécanismes de formation des leks chez l'Outarde canepetière (Tetrax tetrax), une espèce menacée des plaines céréalières, sous la direction de Vincent Bretagnolle. 
+Nommé maître de conférences au Muséum national d'histoire naturelle (MNHN), il rejoint le Centre de recherches sur la biologie des populations d'oiseaux (CRBPO), chargé de gérer et coordonner les activités de baguage en France. Il relance le Suivi temporel des oiseaux communs par écoute (STOC-EPS), un programme de science citoyenne permettant de produire des indices d’abondance des populations d’oiseaux communs, dont il est toujours le coordinateur scientifique. Ces données forment la matière de son premier ouvrage grand public, 100 oiseaux communs nicheurs de France, paru en 2011 chez Delachaux &amp; Niestlé. En 2013, il accède au grade de professeur du MNHN et assure jusqu'en 2019 la direction du CRBPO.
+Au sein du Centre d'écologie et des sciences de la conservation (CESCO), il se consacre en particulier à l'évolution des communautés d'oiseaux face aux changements climatiques, à la conservation des espèces rares et aux scénarios de la biodiversité. En 2013, il reçoit, aux côtés de Vincent Devictor, Romain Julliard et Denis Couvet, le prix spécial du jury La Recherche pour ses travaux sur « La réponse de la biodiversité au changement climatique : les oiseaux et les papillons sont en retard ». De 2012 à 2016, à la demande du ministère de l'Environnement, il coordonne une étude internationale sur la migration du Bruant ortolan (Emberiza hortulana) en Europe. Fondés sur l'utilisation des photomètres géo-localisateurs, les analyses d'isotopes stables et l'analyse de marqueurs génétiques, ses travaux concluent que 300 000 ortolans migrent par le sud-ouest de la France, originaires principalement de Pologne et de Scandinavie, où l'espèce est le plus en déclin,. Depuis 2015, il dirige un projet confié au MNHN par la mairie de Paris visant à baguer les corneilles noires (Corvus corone) parisiennes pour suivre leurs déplacements.
+Il a décrit deux sous-espèces de Goéland dominicain, nommées en l'honneur de son épouse et de sa fille, Larus dominicanus judithae Jiguet 2002 et Larus dominicanus melisandae Jiguet 2002, que l'on rencontre respectivement sur les îles subantarctiques de l'océan Indien et à Madagascar.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_Jiguet</t>
+          <t>Frédéric_Jiguet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">100 oiseaux communs nicheurs de France, Delachaux &amp; Niestlé, 2011  (ISBN 978-2-603-01761-6)
 La sonothèque du Muséum. Les oiseaux de France, les passereaux, avec Fernand Deroussen, coffret de 5 CD, Chiff-Chaff, ONF et Muséum national d'Histoire naturelle, 2012
